--- a/Excel/PlayerLevelConfig.xlsx
+++ b/Excel/PlayerLevelConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\UnityProject\ETGameLesson\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Project\ET-EUI-Study\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7AD02D-8CE5-49E9-B7CB-9E485B76C40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9142B55-E98E-4F9D-B4E5-9C73A7440D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevelConfig" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -442,17 +441,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D6" activeCellId="1" sqref="D30:D35 D6:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="21.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="21.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -496,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -504,7 +503,8 @@
         <v>3</v>
       </c>
       <c r="D8" s="6">
-        <v>1</v>
+        <f>ROUND(D7*1.5,0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -512,7 +512,8 @@
         <v>4</v>
       </c>
       <c r="D9" s="6">
-        <v>1</v>
+        <f t="shared" ref="D9:D45" si="0">ROUND(D8*1.5,0)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -520,7 +521,8 @@
         <v>5</v>
       </c>
       <c r="D10" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -528,7 +530,8 @@
         <v>6</v>
       </c>
       <c r="D11" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -536,7 +539,8 @@
         <v>7</v>
       </c>
       <c r="D12" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -544,7 +548,8 @@
         <v>8</v>
       </c>
       <c r="D13" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -552,7 +557,8 @@
         <v>9</v>
       </c>
       <c r="D14" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -560,7 +566,8 @@
         <v>10</v>
       </c>
       <c r="D15" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -568,7 +575,8 @@
         <v>11</v>
       </c>
       <c r="D16" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -576,7 +584,8 @@
         <v>12</v>
       </c>
       <c r="D17" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -585,7 +594,8 @@
         <v>13</v>
       </c>
       <c r="D18" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -593,7 +603,8 @@
         <v>14</v>
       </c>
       <c r="D19" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -601,7 +612,8 @@
         <v>15</v>
       </c>
       <c r="D20" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -609,7 +621,8 @@
         <v>16</v>
       </c>
       <c r="D21" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -617,7 +630,8 @@
         <v>17</v>
       </c>
       <c r="D22" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1065</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -625,7 +639,8 @@
         <v>18</v>
       </c>
       <c r="D23" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1598</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -633,7 +648,8 @@
         <v>19</v>
       </c>
       <c r="D24" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2397</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -641,7 +657,8 @@
         <v>20</v>
       </c>
       <c r="D25" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3596</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -649,7 +666,8 @@
         <v>21</v>
       </c>
       <c r="D26" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5394</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
@@ -657,7 +675,8 @@
         <v>22</v>
       </c>
       <c r="D27" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>8091</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
@@ -665,7 +684,8 @@
         <v>23</v>
       </c>
       <c r="D28" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>12137</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
@@ -673,7 +693,8 @@
         <v>24</v>
       </c>
       <c r="D29" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>18206</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
@@ -681,7 +702,8 @@
         <v>25</v>
       </c>
       <c r="D30" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>27309</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
@@ -689,7 +711,8 @@
         <v>26</v>
       </c>
       <c r="D31" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>40964</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
@@ -697,7 +720,8 @@
         <v>27</v>
       </c>
       <c r="D32" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>61446</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
@@ -705,7 +729,8 @@
         <v>28</v>
       </c>
       <c r="D33" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>92169</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
@@ -713,7 +738,8 @@
         <v>29</v>
       </c>
       <c r="D34" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>138254</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
@@ -721,12 +747,103 @@
         <v>30</v>
       </c>
       <c r="D35" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>207381</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="1">
+        <v>31</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" si="0"/>
+        <v>311072</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="1">
+        <v>32</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" si="0"/>
+        <v>466608</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="1">
+        <v>33</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" si="0"/>
+        <v>699912</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="1">
+        <v>34</v>
+      </c>
+      <c r="D39" s="6">
+        <f t="shared" si="0"/>
+        <v>1049868</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="1">
+        <v>35</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" si="0"/>
+        <v>1574802</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="1">
+        <v>36</v>
+      </c>
+      <c r="D41" s="6">
+        <f t="shared" si="0"/>
+        <v>2362203</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="1">
+        <v>37</v>
+      </c>
+      <c r="D42" s="6">
+        <f t="shared" si="0"/>
+        <v>3543305</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="1">
+        <v>38</v>
+      </c>
+      <c r="D43" s="6">
+        <f t="shared" si="0"/>
+        <v>5314958</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="1">
+        <v>39</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" si="0"/>
+        <v>7972437</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="1">
+        <v>40</v>
+      </c>
+      <c r="D45" s="6">
+        <f t="shared" si="0"/>
+        <v>11958656</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>